--- a/sputnik/personal/uch/uch8.xlsx
+++ b/sputnik/personal/uch/uch8.xlsx
@@ -171,14 +171,14 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,10 +487,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A2:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -502,93 +502,93 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>43221</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5">
-        <v>10999.52</v>
-      </c>
-      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
-        <v>43281</v>
+        <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5">
-        <v>4500</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C3" s="5">
+        <v>10999.52</v>
+      </c>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>43309</v>
+        <v>43281</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5">
-        <v>4782.3999999999996</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
-        <v>43337</v>
+        <v>43309</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5">
+        <v>4782.3999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>43337</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5">
         <v>1717.12</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>43586</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6">
-        <v>10843.36</v>
-      </c>
-      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="9">
+        <v>43586</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6">
+        <v>10843.36</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>43671</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="6">
+      <c r="C8" s="7"/>
+      <c r="D8" s="6">
         <v>10843.36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/uch/uch8.xlsx
+++ b/sputnik/personal/uch/uch8.xlsx
@@ -16,15 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Оплачено</t>
   </si>
   <si>
     <t xml:space="preserve">Начислено </t>
-  </si>
-  <si>
-    <t>Наименование</t>
   </si>
   <si>
     <t>Начислен членский взнос 2018/2019 (с 01.05.2018 по 30.04.2019)</t>
@@ -34,6 +31,12 @@
   </si>
   <si>
     <t>Начислен членский взнос 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Наименование / садовый участок №8</t>
   </si>
 </sst>
 </file>
@@ -166,12 +169,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -179,6 +176,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,10 +490,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -502,11 +505,14 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="12"/>
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -515,11 +521,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="11">
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="5">
         <v>10999.52</v>
@@ -527,11 +533,11 @@
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="11">
         <v>43281</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5">
@@ -539,11 +545,11 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="11">
         <v>43309</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5">
@@ -551,11 +557,11 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="11">
         <v>43337</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5">
@@ -563,11 +569,11 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="11">
         <v>43586</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="6">
         <v>10843.36</v>
@@ -575,11 +581,11 @@
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="12">
         <v>43671</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>5</v>
+      <c r="B8" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="6">
@@ -587,9 +593,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/uch/uch8.xlsx
+++ b/sputnik/personal/uch/uch8.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>Оплачено</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Наименование / садовый участок №8</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
@@ -151,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -183,6 +186,8 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -490,10 +495,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C9" sqref="C9:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -591,6 +596,36 @@
       <c r="D8" s="6">
         <v>10843.36</v>
       </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>43952</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14">
+        <v>12200</v>
+      </c>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch8.xlsx
+++ b/sputnik/personal/uch/uch8.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Оплачено</t>
   </si>
@@ -498,7 +498,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -610,10 +610,16 @@
       <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="13">
+        <v>44020</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="D10" s="14">
+        <v>12200</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>

--- a/sputnik/personal/uch/uch8.xlsx
+++ b/sputnik/personal/uch/uch8.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -498,7 +501,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -622,9 +625,15 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="14"/>
+      <c r="A11" s="13">
+        <v>44317</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="14">
+        <v>13010.08</v>
+      </c>
       <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">

--- a/sputnik/personal/uch/uch8.xlsx
+++ b/sputnik/personal/uch/uch8.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -498,10 +498,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -637,10 +637,40 @@
       <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
+      <c r="A12" s="13">
+        <v>44377</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="D12" s="14">
+        <v>13010.08</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
